--- a/meta/en/11-2-1.xlsx
+++ b/meta/en/11-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>11.2.1. Proportion of population that has convenient access to public transport, by sex, age and persons with disabilities</t>
   </si>
   <si>
-    <t>The National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Y. I. Kalymbetova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y.Kalymbetova@stat.kg </t>
-  </si>
-  <si>
-    <t>(312) 66 41 64</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>This indicator will be monitored by the proportion of the population that has convenient access to public transport. The access to public transport is considered convenient when an officially recognized stop is accessible within a distance of 0.5 km from a reference point such as a home, school, work place, market, etc. Additional criteria for defining public transport that is convenient include:
 a. Public transport accessible to all special-needs customers, including those who are physically, visually, and/or hearing-impaired, as well as those with temporary disabilities, the elderly, children and other people in vulnerable situations.
 b. Public transport with frequent service during peak travel times
@@ -152,6 +137,21 @@
   </si>
   <si>
     <t xml:space="preserve">The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io </t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
